--- a/experiment/jsp/my_ur_result80.xlsx
+++ b/experiment/jsp/my_ur_result80.xlsx
@@ -433,7 +433,7 @@
         <v>0.7267857142857144</v>
       </c>
       <c r="F2">
-        <v>0.7003824091778202</v>
+        <v>0.7631250000000001</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -450,10 +450,10 @@
         <v>0.6709255533199195</v>
       </c>
       <c r="E3">
-        <v>0.7102236421725239</v>
+        <v>0.691804979253112</v>
       </c>
       <c r="F3">
-        <v>0.6642430278884461</v>
+        <v>0.7020000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -473,7 +473,7 @@
         <v>0.6797938144329897</v>
       </c>
       <c r="F4">
-        <v>0.7029850746268658</v>
+        <v>0.7198689956331877</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -493,7 +493,7 @@
         <v>0.6382841328413285</v>
       </c>
       <c r="F5">
-        <v>0.6912087912087912</v>
+        <v>0.67568359375</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -513,7 +513,7 @@
         <v>0.7254413291796469</v>
       </c>
       <c r="F6">
-        <v>0.5698205546492658</v>
+        <v>0.6634377967711302</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -533,7 +533,7 @@
         <v>0.7445492662473795</v>
       </c>
       <c r="F7">
-        <v>0.7429916317991631</v>
+        <v>0.740667361835245</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -553,7 +553,7 @@
         <v>0.7619300106044539</v>
       </c>
       <c r="F8">
-        <v>0.6791115311909264</v>
+        <v>0.7064896755162241</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -573,7 +573,7 @@
         <v>0.7318136769078295</v>
       </c>
       <c r="F9">
-        <v>0.7141199226305609</v>
+        <v>0.7086372360844529</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -593,7 +593,7 @@
         <v>0.6854545454545454</v>
       </c>
       <c r="F10">
-        <v>0.7135646687697161</v>
+        <v>0.7143157894736841</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -613,7 +613,7 @@
         <v>0.7502109704641351</v>
       </c>
       <c r="F11">
-        <v>0.6512820512820513</v>
+        <v>0.670943396226415</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -633,7 +633,7 @@
         <v>0.6212255772646537</v>
       </c>
       <c r="F12">
-        <v>0.6946375372393246</v>
+        <v>0.6719500480307398</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -653,7 +653,7 @@
         <v>0.6638576779026217</v>
       </c>
       <c r="F13">
-        <v>0.6626168224299065</v>
+        <v>0.7190669371196754</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -673,7 +673,7 @@
         <v>0.7260869565217392</v>
       </c>
       <c r="F14">
-        <v>0.6380133715377269</v>
+        <v>0.685128205128205</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -690,10 +690,10 @@
         <v>0.6772011121408712</v>
       </c>
       <c r="E15">
-        <v>0.6886899151743637</v>
+        <v>0.6926066350710901</v>
       </c>
       <c r="F15">
-        <v>0.7263419483101392</v>
+        <v>0.6809878844361603</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -713,7 +713,7 @@
         <v>0.6754679802955665</v>
       </c>
       <c r="F16">
-        <v>0.6946301925025329</v>
+        <v>0.631889400921659</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -733,7 +733,7 @@
         <v>0.6740079365079366</v>
       </c>
       <c r="F17">
-        <v>0.7077083333333333</v>
+        <v>0.7204665959703076</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -753,7 +753,7 @@
         <v>0.6927592954990216</v>
       </c>
       <c r="F18">
-        <v>0.6847195357833656</v>
+        <v>0.7344398340248962</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -773,7 +773,7 @@
         <v>0.6925149700598803</v>
       </c>
       <c r="F19">
-        <v>0.7051829268292683</v>
+        <v>0.7109631147540985</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -793,7 +793,7 @@
         <v>0.7514541387024608</v>
       </c>
       <c r="F20">
-        <v>0.7116525423728814</v>
+        <v>0.7146808510638298</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -813,7 +813,7 @@
         <v>0.7562775330396476</v>
       </c>
       <c r="F21">
-        <v>0.7050308008213553</v>
+        <v>0.7160583941605839</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -833,7 +833,7 @@
         <v>0.7149268292682927</v>
       </c>
       <c r="F22">
-        <v>0.7184313725490197</v>
+        <v>0.7357429718875501</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -853,7 +853,7 @@
         <v>0.7053731343283582</v>
       </c>
       <c r="F23">
-        <v>0.7485744456177402</v>
+        <v>0.6889212827988338</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -873,7 +873,7 @@
         <v>0.6748237663645518</v>
       </c>
       <c r="F24">
-        <v>0.6951244813278008</v>
+        <v>0.7363736263736265</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -893,7 +893,7 @@
         <v>0.730901287553648</v>
       </c>
       <c r="F25">
-        <v>0.7628219484882419</v>
+        <v>0.7380281690140844</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -913,7 +913,7 @@
         <v>0.7199602780536247</v>
       </c>
       <c r="F26">
-        <v>0.6657483930211203</v>
+        <v>0.6859035004730369</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -933,7 +933,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="F27">
-        <v>0.6753381893860563</v>
+        <v>0.6781609195402299</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -953,7 +953,7 @@
         <v>0.6901296111665005</v>
       </c>
       <c r="F28">
-        <v>0.702741116751269</v>
+        <v>0.7515743756786102</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -970,10 +970,10 @@
         <v>0.6887203791469194</v>
       </c>
       <c r="E29">
-        <v>0.7721572794899043</v>
+        <v>0.7632352941176471</v>
       </c>
       <c r="F29">
-        <v>0.733939393939394</v>
+        <v>0.7130520117762511</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -990,10 +990,10 @@
         <v>0.6303350970017637</v>
       </c>
       <c r="E30">
-        <v>0.6859884836852207</v>
+        <v>0.7014720314033365</v>
       </c>
       <c r="F30">
-        <v>0.742263759086189</v>
+        <v>0.7445833333333333</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1013,7 +1013,7 @@
         <v>0.6833493743984601</v>
       </c>
       <c r="F31">
-        <v>0.6774809160305344</v>
+        <v>0.8068181818181819</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1033,7 +1033,7 @@
         <v>0.6806451612903227</v>
       </c>
       <c r="F32">
-        <v>0.655032925682032</v>
+        <v>0.73140756302521</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1053,7 +1053,7 @@
         <v>0.6494634146341463</v>
       </c>
       <c r="F33">
-        <v>0.6963389121338912</v>
+        <v>0.679979570990807</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1073,7 +1073,7 @@
         <v>0.7013752455795678</v>
       </c>
       <c r="F34">
-        <v>0.691860465116279</v>
+        <v>0.6885245901639344</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1093,7 +1093,7 @@
         <v>0.7453436807095344</v>
       </c>
       <c r="F35">
-        <v>0.6784056508577195</v>
+        <v>0.6930927835051546</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1113,7 +1113,7 @@
         <v>0.7187122736418512</v>
       </c>
       <c r="F36">
-        <v>0.7297242083758937</v>
+        <v>0.6707981220657276</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1133,7 +1133,7 @@
         <v>0.7047012732615083</v>
       </c>
       <c r="F37">
-        <v>0.7159203980099502</v>
+        <v>0.7209418837675352</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1153,7 +1153,7 @@
         <v>0.7558823529411764</v>
       </c>
       <c r="F38">
-        <v>0.656385068762279</v>
+        <v>0.6902892561983471</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1173,7 +1173,7 @@
         <v>0.6799038461538462</v>
       </c>
       <c r="F39">
-        <v>0.6702369668246446</v>
+        <v>0.6069527896995708</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1193,7 +1193,7 @@
         <v>0.7072368421052631</v>
       </c>
       <c r="F40">
-        <v>0.6854410201912857</v>
+        <v>0.6898395721925134</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1213,7 +1213,7 @@
         <v>0.73446088794926</v>
       </c>
       <c r="F41">
-        <v>0.6181494661921708</v>
+        <v>0.6610846812559468</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1233,7 +1233,7 @@
         <v>0.7299663299663299</v>
       </c>
       <c r="F42">
-        <v>0.720265780730897</v>
+        <v>0.7598130841121495</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1253,7 +1253,7 @@
         <v>0.7384301732925584</v>
       </c>
       <c r="F43">
-        <v>0.6485228290062668</v>
+        <v>0.6892483349191245</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1273,7 +1273,7 @@
         <v>0.635632183908046</v>
       </c>
       <c r="F44">
-        <v>0.6629370629370629</v>
+        <v>0.6636000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1293,7 +1293,7 @@
         <v>0.7142094017094017</v>
       </c>
       <c r="F45">
-        <v>0.6189814814814816</v>
+        <v>0.6077272727272727</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1313,7 +1313,7 @@
         <v>0.629467680608365</v>
       </c>
       <c r="F46">
-        <v>0.6511307767944936</v>
+        <v>0.7166666666666666</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1333,7 +1333,7 @@
         <v>0.7413867822318526</v>
       </c>
       <c r="F47">
-        <v>0.7248940677966103</v>
+        <v>0.7397837837837837</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1353,7 +1353,7 @@
         <v>0.6906740535549399</v>
       </c>
       <c r="F48">
-        <v>0.6945218198700093</v>
+        <v>0.7010309278350515</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1373,7 +1373,7 @@
         <v>0.7831858407079646</v>
       </c>
       <c r="F49">
-        <v>0.6807692307692308</v>
+        <v>0.6893865628042845</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1393,7 +1393,7 @@
         <v>0.68662109375</v>
       </c>
       <c r="F50">
-        <v>0.6024850042844901</v>
+        <v>0.6558768656716418</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1413,7 +1413,7 @@
         <v>0.7286315789473685</v>
       </c>
       <c r="F51">
-        <v>0.7419078242229367</v>
+        <v>0.6174843889384477</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1433,7 +1433,7 @@
         <v>0.6533269961977186</v>
       </c>
       <c r="F52">
-        <v>0.6718475073313783</v>
+        <v>0.707826982492276</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1453,7 +1453,7 @@
         <v>0.6753910323253388</v>
       </c>
       <c r="F53">
-        <v>0.7261210762331839</v>
+        <v>0.7385404789053591</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1473,7 +1473,7 @@
         <v>0.7240279162512463</v>
       </c>
       <c r="F54">
-        <v>0.6353455818022746</v>
+        <v>0.6949282296650718</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1493,7 +1493,7 @@
         <v>0.6723684210526315</v>
       </c>
       <c r="F55">
-        <v>0.7459854014598539</v>
+        <v>0.7904972375690609</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1513,7 +1513,7 @@
         <v>0.7491596638655462</v>
       </c>
       <c r="F56">
-        <v>0.7139139139139138</v>
+        <v>0.6634418604651163</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1533,7 +1533,7 @@
         <v>0.7251050420168068</v>
       </c>
       <c r="F57">
-        <v>0.7072745901639343</v>
+        <v>0.6676015473887815</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1553,7 +1553,7 @@
         <v>0.6840436075322101</v>
       </c>
       <c r="F58">
-        <v>0.7050051072522983</v>
+        <v>0.7445523193096009</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1573,7 +1573,7 @@
         <v>0.7063429137760159</v>
       </c>
       <c r="F59">
-        <v>0.7000982318271121</v>
+        <v>0.7105682951146559</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1593,7 +1593,7 @@
         <v>0.6612570356472796</v>
       </c>
       <c r="F60">
-        <v>0.6719733079122975</v>
+        <v>0.6830426356589147</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1613,7 +1613,7 @@
         <v>0.6860119047619048</v>
       </c>
       <c r="F61">
-        <v>0.6055166374781086</v>
+        <v>0.5915312232677502</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1633,7 +1633,7 @@
         <v>0.7832214765100671</v>
       </c>
       <c r="F62">
-        <v>0.7094224924012157</v>
+        <v>0.6459409594095942</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1653,7 +1653,7 @@
         <v>0.7094246031746032</v>
       </c>
       <c r="F63">
-        <v>0.7456725755995829</v>
+        <v>0.7567195767195767</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1673,7 +1673,7 @@
         <v>0.6976119402985075</v>
       </c>
       <c r="F64">
-        <v>0.6333333333333333</v>
+        <v>0.5992307692307693</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1690,10 +1690,10 @@
         <v>0.7022459893048129</v>
       </c>
       <c r="E65">
-        <v>0.6659229208924951</v>
+        <v>0.6579158316633267</v>
       </c>
       <c r="F65">
-        <v>0.6741273100616015</v>
+        <v>0.7029978586723769</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1713,7 +1713,7 @@
         <v>0.7591304347826087</v>
       </c>
       <c r="F66">
-        <v>0.6914851485148514</v>
+        <v>0.7185185185185184</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1733,7 +1733,7 @@
         <v>0.6847</v>
       </c>
       <c r="F67">
-        <v>0.7291799787007454</v>
+        <v>0.6602700096432016</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1753,7 +1753,7 @@
         <v>0.6676555023923445</v>
       </c>
       <c r="F68">
-        <v>0.6448243992606284</v>
+        <v>0.7019114688128771</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1773,7 +1773,7 @@
         <v>0.7122137404580153</v>
       </c>
       <c r="F69">
-        <v>0.6874736842105263</v>
+        <v>0.6788981288981289</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1793,7 +1793,7 @@
         <v>0.5995759117896523</v>
       </c>
       <c r="F70">
-        <v>0.667516525023607</v>
+        <v>0.6618913857677902</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1813,7 +1813,7 @@
         <v>0.6842870999030068</v>
       </c>
       <c r="F71">
-        <v>0.7250770811921891</v>
+        <v>0.7318464730290456</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1833,7 +1833,7 @@
         <v>0.7193790149892934</v>
       </c>
       <c r="F72">
-        <v>0.6659068384539147</v>
+        <v>0.6745983935742973</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1853,7 +1853,7 @@
         <v>0.7182851239669421</v>
       </c>
       <c r="F73">
-        <v>0.7334388185654009</v>
+        <v>0.7242708333333334</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1873,7 +1873,7 @@
         <v>0.6797385620915032</v>
       </c>
       <c r="F74">
-        <v>0.742857142857143</v>
+        <v>0.7769477054429029</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1893,7 +1893,7 @@
         <v>0.7016765285996056</v>
       </c>
       <c r="F75">
-        <v>0.7150753768844221</v>
+        <v>0.6841346153846154</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1913,7 +1913,7 @@
         <v>0.6683426443202979</v>
       </c>
       <c r="F76">
-        <v>0.6683426443202979</v>
+        <v>0.6901923076923077</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1933,7 +1933,7 @@
         <v>0.660075329566855</v>
       </c>
       <c r="F77">
-        <v>0.694059405940594</v>
+        <v>0.7045226130653266</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1953,7 +1953,7 @@
         <v>0.6628571428571429</v>
       </c>
       <c r="F78">
-        <v>0.7160493827160493</v>
+        <v>0.6609686609686609</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1973,7 +1973,7 @@
         <v>0.7496524329692156</v>
       </c>
       <c r="F79">
-        <v>0.7357699805068226</v>
+        <v>0.7343385214007783</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1993,7 +1993,7 @@
         <v>0.6917821782178217</v>
       </c>
       <c r="F80">
-        <v>0.6433701657458564</v>
+        <v>0.6897334649555774</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2013,7 +2013,7 @@
         <v>0.6455660377358491</v>
       </c>
       <c r="F81">
-        <v>0.6510941960038059</v>
+        <v>0.6695694716242662</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2033,7 +2033,7 @@
         <v>0.6702247191011236</v>
       </c>
       <c r="F82">
-        <v>0.7730021598272139</v>
+        <v>0.7771986970684038</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2053,7 +2053,7 @@
         <v>0.7201086956521741</v>
       </c>
       <c r="F83">
-        <v>0.7108369098712446</v>
+        <v>0.7154427645788337</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2070,10 +2070,10 @@
         <v>0.7450793650793651</v>
       </c>
       <c r="E84">
-        <v>0.6855890944498539</v>
+        <v>0.7069277108433736</v>
       </c>
       <c r="F84">
-        <v>0.7288819875776398</v>
+        <v>0.7396008403361344</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2093,7 +2093,7 @@
         <v>0.71742195367573</v>
       </c>
       <c r="F85">
-        <v>0.7276813074565883</v>
+        <v>0.6883091787439614</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2113,7 +2113,7 @@
         <v>0.6698019801980198</v>
       </c>
       <c r="F86">
-        <v>0.7305615550755939</v>
+        <v>0.7592592592592593</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2130,10 +2130,10 @@
         <v>0.7064612326043738</v>
       </c>
       <c r="E87">
-        <v>0.7244648318042812</v>
+        <v>0.7357142857142857</v>
       </c>
       <c r="F87">
-        <v>0.6866666666666668</v>
+        <v>0.7357142857142857</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2153,7 +2153,7 @@
         <v>0.7019553072625699</v>
       </c>
       <c r="F88">
-        <v>0.6521626297577855</v>
+        <v>0.7105560791705938</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2173,7 +2173,7 @@
         <v>0.7535753575357537</v>
       </c>
       <c r="F89">
-        <v>0.6586538461538461</v>
+        <v>0.6748768472906405</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2193,7 +2193,7 @@
         <v>0.7180851063829787</v>
       </c>
       <c r="F90">
-        <v>0.6937307297019528</v>
+        <v>0.7705479452054794</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2213,7 +2213,7 @@
         <v>0.729049676025918</v>
       </c>
       <c r="F91">
-        <v>0.6771313941825476</v>
+        <v>0.6909928352098259</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2233,7 +2233,7 @@
         <v>0.6283273381294965</v>
       </c>
       <c r="F92">
-        <v>0.6890532544378697</v>
+        <v>0.7188271604938272</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2250,10 +2250,10 @@
         <v>0.7272435897435898</v>
       </c>
       <c r="E93">
-        <v>0.7614093959731543</v>
+        <v>0.7488448844884488</v>
       </c>
       <c r="F93">
-        <v>0.7272435897435898</v>
+        <v>0.7580178173719376</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2273,7 +2273,7 @@
         <v>0.7650589496248662</v>
       </c>
       <c r="F94">
-        <v>0.6785171102661597</v>
+        <v>0.7067326732673267</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2293,7 +2293,7 @@
         <v>0.6990797546012271</v>
       </c>
       <c r="F95">
-        <v>0.6976530612244898</v>
+        <v>0.7055727554179567</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2313,7 +2313,7 @@
         <v>0.7075508228460794</v>
       </c>
       <c r="F96">
-        <v>0.6843632958801498</v>
+        <v>0.677386468952734</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2333,7 +2333,7 @@
         <v>0.740679711637487</v>
       </c>
       <c r="F97">
-        <v>0.7235412474849096</v>
+        <v>0.7057899901864573</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2350,10 +2350,10 @@
         <v>0.6321490467937608</v>
       </c>
       <c r="E98">
-        <v>0.7034715525554484</v>
+        <v>0.6875589066918002</v>
       </c>
       <c r="F98">
-        <v>0.6404741000877963</v>
+        <v>0.6625794732061763</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2373,7 +2373,7 @@
         <v>0.6570488721804513</v>
       </c>
       <c r="F99">
-        <v>0.6820487804878048</v>
+        <v>0.7657174151150055</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2390,10 +2390,10 @@
         <v>0.7354144241119482</v>
       </c>
       <c r="E100">
-        <v>0.6866331658291458</v>
+        <v>0.6481973434535104</v>
       </c>
       <c r="F100">
-        <v>0.7146443514644352</v>
+        <v>0.6798009950248757</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2413,7 +2413,7 @@
         <v>0.6914750957854406</v>
       </c>
       <c r="F101">
-        <v>0.6371579876434245</v>
+        <v>0.65508166969147</v>
       </c>
     </row>
   </sheetData>
@@ -2466,7 +2466,7 @@
         <v>0.07511198283048204</v>
       </c>
       <c r="F2">
-        <v>0.07238324922860986</v>
+        <v>0.07886758197200615</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2483,10 +2483,10 @@
         <v>0.07934998659953713</v>
       </c>
       <c r="E3">
-        <v>0.08399774939290723</v>
+        <v>0.08181938452275925</v>
       </c>
       <c r="F3">
-        <v>0.07855964808758954</v>
+        <v>0.08302514387362094</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0.08513266984020014</v>
       </c>
       <c r="F4">
-        <v>0.08803698267056943</v>
+        <v>0.09015140801855255</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0.0912691764355899</v>
       </c>
       <c r="F5">
-        <v>0.09883695030587358</v>
+        <v>0.09661697974236273</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0.07169050942100427</v>
       </c>
       <c r="F6">
-        <v>0.05631155022220807</v>
+        <v>0.06556311545339706</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0.06755446009637719</v>
       </c>
       <c r="F7">
-        <v>0.06741313277399984</v>
+        <v>0.06720224706146385</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0.07910560094498452</v>
       </c>
       <c r="F8">
-        <v>0.07050716605966011</v>
+        <v>0.07334963784770936</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0.06027234968291485</v>
       </c>
       <c r="F9">
-        <v>0.05881508784338599</v>
+        <v>0.05836353246646937</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0.05746081029646676</v>
       </c>
       <c r="F10">
-        <v>0.05981724731177925</v>
+        <v>0.05988021283526533</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0.07386648096460623</v>
       </c>
       <c r="F11">
-        <v>0.06412584611213072</v>
+        <v>0.06606172071174217</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0.04216976457177592</v>
       </c>
       <c r="F12">
-        <v>0.04715308332454783</v>
+        <v>0.04561302104497568</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0.0961551679583539</v>
       </c>
       <c r="F13">
-        <v>0.09597543867245042</v>
+        <v>0.1041518452124969</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0.08281153586662787</v>
       </c>
       <c r="F14">
-        <v>0.07276658356952972</v>
+        <v>0.07814011589466424</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2723,10 +2723,10 @@
         <v>0.06047015643620272</v>
       </c>
       <c r="E15">
-        <v>0.06149604033427215</v>
+        <v>0.06184578084802158</v>
       </c>
       <c r="F15">
-        <v>0.06485814989529101</v>
+        <v>0.06080829337806409</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0.03192543911286801</v>
       </c>
       <c r="F16">
-        <v>0.03283112532883592</v>
+        <v>0.02986573336365073</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0.0614249952816561</v>
       </c>
       <c r="F17">
-        <v>0.06449624504573891</v>
+        <v>0.06565895571994627</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0.08684194202985025</v>
       </c>
       <c r="F18">
-        <v>0.08583410517844001</v>
+        <v>0.09206687215197817</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0.06048175919272713</v>
       </c>
       <c r="F19">
-        <v>0.06158813283649652</v>
+        <v>0.0620929535974514</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0.04314194562413692</v>
       </c>
       <c r="F20">
-        <v>0.04085688494489238</v>
+        <v>0.04103074402976425</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0.09914959144361872</v>
       </c>
       <c r="F21">
-        <v>0.0924310359659197</v>
+        <v>0.09387677688300917</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0.06736625986702209</v>
       </c>
       <c r="F22">
-        <v>0.06769648663107609</v>
+        <v>0.06932772727278876</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0.07838806980583184</v>
       </c>
       <c r="F23">
-        <v>0.08318902867461561</v>
+        <v>0.07655977663251796</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0.05085240233410573</v>
       </c>
       <c r="F24">
-        <v>0.05238219452050518</v>
+        <v>0.05549058848106264</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0.05093753459034296</v>
       </c>
       <c r="F25">
-        <v>0.05316213016595706</v>
+        <v>0.05143421694279486</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0.07766757933204003</v>
       </c>
       <c r="F26">
-        <v>0.07181933185249248</v>
+        <v>0.07399361626051497</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0.06581084304631026</v>
       </c>
       <c r="F27">
-        <v>0.06060623943390698</v>
+        <v>0.0608595570490957</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0.05493836086941831</v>
       </c>
       <c r="F28">
-        <v>0.05594231061119448</v>
+        <v>0.05982972416072375</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3003,10 +3003,10 @@
         <v>0.05991271175098765</v>
       </c>
       <c r="E29">
-        <v>0.06717099989085225</v>
+        <v>0.06639486438791171</v>
       </c>
       <c r="F29">
-        <v>0.06384637464372928</v>
+        <v>0.06202935318674382</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3023,10 +3023,10 @@
         <v>0.07215516523096041</v>
       </c>
       <c r="E30">
-        <v>0.07852587079837728</v>
+        <v>0.08029828986448392</v>
       </c>
       <c r="F30">
-        <v>0.08496776466449545</v>
+        <v>0.085233288929072</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0.06908989357013709</v>
       </c>
       <c r="F31">
-        <v>0.06849656433146226</v>
+        <v>0.08157318115837779</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>0.06887861884579469</v>
       </c>
       <c r="F32">
-        <v>0.06628676112817307</v>
+        <v>0.07401557466307558</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0.08551156901528055</v>
       </c>
       <c r="F33">
-        <v>0.09168342912203196</v>
+        <v>0.08952947726318955</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0.06323871761452429</v>
       </c>
       <c r="F34">
-        <v>0.06238082803448229</v>
+        <v>0.06208005258590716</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0.06078593761511954</v>
       </c>
       <c r="F35">
-        <v>0.05532685744585047</v>
+        <v>0.05652465539055445</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0.06718514437828549</v>
       </c>
       <c r="F36">
-        <v>0.06821453882739102</v>
+        <v>0.06270613475306648</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0.05928638277365572</v>
       </c>
       <c r="F37">
-        <v>0.06023024558398258</v>
+        <v>0.06065270221633518</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0.06526629762017257</v>
       </c>
       <c r="F38">
-        <v>0.05667525255032665</v>
+        <v>0.05960269328123197</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0.07327333170433328</v>
       </c>
       <c r="F39">
-        <v>0.07223153077962711</v>
+        <v>0.06541138624249494</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0.07502756751998245</v>
       </c>
       <c r="F40">
-        <v>0.07271534705443572</v>
+        <v>0.0731819696023786</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0.09740061198719153</v>
       </c>
       <c r="F41">
-        <v>0.08197595991092811</v>
+        <v>0.08766981821111627</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0.09226271885524065</v>
       </c>
       <c r="F42">
-        <v>0.0910366362126461</v>
+        <v>0.09603514310749933</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>0.07521416243167371</v>
       </c>
       <c r="F43">
-        <v>0.06605648464232039</v>
+        <v>0.07020465589483531</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>0.08979669218351148</v>
       </c>
       <c r="F44">
-        <v>0.09365409254703894</v>
+        <v>0.09374774663958595</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0.08141733654745412</v>
       </c>
       <c r="F45">
-        <v>0.07056169167446025</v>
+        <v>0.06927875182583369</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0.08545495204888967</v>
       </c>
       <c r="F46">
-        <v>0.08839587960219464</v>
+        <v>0.09729286748423371</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0.07044928236120886</v>
       </c>
       <c r="F47">
-        <v>0.06888208434258025</v>
+        <v>0.07029695958853596</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0.05574837646945905</v>
       </c>
       <c r="F48">
-        <v>0.05605895238293792</v>
+        <v>0.05658434087762337</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0.05390926075668674</v>
       </c>
       <c r="F49">
-        <v>0.04685958819619693</v>
+        <v>0.04745274754045262</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0.07095712801913302</v>
       </c>
       <c r="F50">
-        <v>0.06226229570830524</v>
+        <v>0.06777994318245542</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0.06927531488255802</v>
       </c>
       <c r="F51">
-        <v>0.07053756606476969</v>
+        <v>0.0587078939682695</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0.08263955906537865</v>
       </c>
       <c r="F52">
-        <v>0.08498222496263766</v>
+        <v>0.08953328129431343</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0.07352117641491698</v>
       </c>
       <c r="F53">
-        <v>0.07904350693038718</v>
+        <v>0.08039544832600384</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0.07140951054974749</v>
       </c>
       <c r="F54">
-        <v>0.06266293882886857</v>
+        <v>0.06853946323578637</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0.03746264651768167</v>
       </c>
       <c r="F55">
-        <v>0.04156439613640598</v>
+        <v>0.04404448165172742</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0.0614290168855775</v>
       </c>
       <c r="F56">
-        <v>0.05853896303810788</v>
+        <v>0.054400394488437</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0.07170462289634673</v>
       </c>
       <c r="F57">
-        <v>0.06994139446446938</v>
+        <v>0.06601818278270997</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0.06960432357831635</v>
       </c>
       <c r="F58">
-        <v>0.07173724462770296</v>
+        <v>0.07576134033497434</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0.08182392623296419</v>
       </c>
       <c r="F59">
-        <v>0.08110053199318357</v>
+        <v>0.08231340136496597</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3626,7 +3626,7 @@
         <v>0.07434172677152796</v>
       </c>
       <c r="F60">
-        <v>0.07554650213388832</v>
+        <v>0.07679096970779926</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0.07507141818827048</v>
       </c>
       <c r="F61">
-        <v>0.066262687857948</v>
+        <v>0.06473224083299967</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>0.04592345871858899</v>
       </c>
       <c r="F62">
-        <v>0.04159632431045446</v>
+        <v>0.03787414399854109</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0.0402524795444134</v>
       </c>
       <c r="F63">
-        <v>0.04230917557952941</v>
+        <v>0.04293597818070762</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0.06859244233490085</v>
       </c>
       <c r="F64">
-        <v>0.06227227149645469</v>
+        <v>0.05891914918510714</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3723,10 +3723,10 @@
         <v>0.06152140890927546</v>
       </c>
       <c r="E65">
-        <v>0.0583392670691405</v>
+        <v>0.05763779291600456</v>
       </c>
       <c r="F65">
-        <v>0.05905802600633732</v>
+        <v>0.06158727765543098</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0.0384149565233138</v>
       </c>
       <c r="F66">
-        <v>0.03499184158559277</v>
+        <v>0.03635983539243694</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0.05048177889100183</v>
       </c>
       <c r="F67">
-        <v>0.0537612128764663</v>
+        <v>0.04868059680906641</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0.04645250493133038</v>
       </c>
       <c r="F68">
-        <v>0.04486401816380803</v>
+        <v>0.04883588295094594</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0.08510253947348373</v>
       </c>
       <c r="F69">
-        <v>0.08214634599703641</v>
+        <v>0.08112165145237483</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0.04469728789875346</v>
       </c>
       <c r="F70">
-        <v>0.04976213638586434</v>
+        <v>0.04934279253991605</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0.07944004477074282</v>
       </c>
       <c r="F71">
-        <v>0.08417542256797107</v>
+        <v>0.08496129269568034</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0.05486449529375972</v>
       </c>
       <c r="F72">
-        <v>0.05078636135220178</v>
+        <v>0.05144923554655781</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0.07613299946591538</v>
       </c>
       <c r="F73">
-        <v>0.07773918088924694</v>
+        <v>0.07676744112813134</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0.06834580825152231</v>
       </c>
       <c r="F74">
-        <v>0.07469220473202082</v>
+        <v>0.07811991530136649</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0.06740145985317812</v>
       </c>
       <c r="F75">
-        <v>0.06868852290565088</v>
+        <v>0.06571642335684869</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0.0330947633393267</v>
       </c>
       <c r="F76">
-        <v>0.0330947633393267</v>
+        <v>0.03417670752542008</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0.05256228149511438</v>
       </c>
       <c r="F77">
-        <v>0.05526845836416975</v>
+        <v>0.05610165120383059</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0.05112786869131256</v>
       </c>
       <c r="F78">
-        <v>0.05523072235172651</v>
+        <v>0.05098220524774755</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0.06422568594964262</v>
       </c>
       <c r="F79">
-        <v>0.06303632139501959</v>
+        <v>0.06291368263744175</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0.05653118541147936</v>
       </c>
       <c r="F80">
-        <v>0.05257504352264657</v>
+        <v>0.05636376827798038</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0.09608947896230956</v>
       </c>
       <c r="F81">
-        <v>0.09691231941013141</v>
+        <v>0.09966227759300209</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0.0737490179261967</v>
       </c>
       <c r="F82">
-        <v>0.08505826257578625</v>
+        <v>0.08552003381669719</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0.07792689912222411</v>
       </c>
       <c r="F83">
-        <v>0.07692354848974914</v>
+        <v>0.07742197320998509</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -4103,10 +4103,10 @@
         <v>0.06203883640399936</v>
       </c>
       <c r="E84">
-        <v>0.05708539474369952</v>
+        <v>0.05886214899777047</v>
       </c>
       <c r="F84">
-        <v>0.06069016604739067</v>
+        <v>0.06158266848926405</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0.059400889083576</v>
       </c>
       <c r="F85">
-        <v>0.06025033999999079</v>
+        <v>0.05699041822221351</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -4146,7 +4146,7 @@
         <v>0.06826264173069577</v>
       </c>
       <c r="F86">
-        <v>0.07445493320518654</v>
+        <v>0.0773796499977584</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -4163,10 +4163,10 @@
         <v>0.06959251561048653</v>
       </c>
       <c r="E87">
-        <v>0.07136602518261918</v>
+        <v>0.07247419327551699</v>
       </c>
       <c r="F87">
-        <v>0.06764258039048253</v>
+        <v>0.07247419327551699</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0.07545054171565539</v>
       </c>
       <c r="F88">
-        <v>0.07009851367008121</v>
+        <v>0.0763750064115117</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0.07953422581101889</v>
       </c>
       <c r="F89">
-        <v>0.06951597236751553</v>
+        <v>0.07122818843568096</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0.05891350666478675</v>
       </c>
       <c r="F90">
-        <v>0.05691541239969123</v>
+        <v>0.06321768980011365</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0.09202923394776144</v>
       </c>
       <c r="F91">
-        <v>0.0854754971270081</v>
+        <v>0.08722525141824676</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0.06040334479496256</v>
       </c>
       <c r="F92">
-        <v>0.06624114340433765</v>
+        <v>0.06910341503292011</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4283,10 +4283,10 @@
         <v>0.08200793738054121</v>
       </c>
       <c r="E93">
-        <v>0.0858606592709022</v>
+        <v>0.08444381670867607</v>
       </c>
       <c r="F93">
-        <v>0.08200793738054121</v>
+        <v>0.08547820644564208</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0.0598543072022339</v>
       </c>
       <c r="F94">
-        <v>0.05308371541795077</v>
+        <v>0.05529115704919229</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0.05819792635903363</v>
       </c>
       <c r="F95">
-        <v>0.05807915508074987</v>
+        <v>0.0587384643747522</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0.07485688490812109</v>
       </c>
       <c r="F96">
-        <v>0.07240370984090738</v>
+        <v>0.07166558119563403</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>0.0507585059838908</v>
       </c>
       <c r="F97">
-        <v>0.04958401339070217</v>
+        <v>0.04836752631045921</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -4383,10 +4383,10 @@
         <v>0.0641473214409041</v>
       </c>
       <c r="E98">
-        <v>0.07138477236528772</v>
+        <v>0.06977003670386743</v>
       </c>
       <c r="F98">
-        <v>0.06499210618332163</v>
+        <v>0.06723524881271876</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0.04402561019438268</v>
       </c>
       <c r="F99">
-        <v>0.04570073097251041</v>
+        <v>0.05130695426815245</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4423,10 +4423,10 @@
         <v>0.07116928012627376</v>
       </c>
       <c r="E100">
-        <v>0.06644850375608875</v>
+        <v>0.06272890060465687</v>
       </c>
       <c r="F100">
-        <v>0.06915926907668235</v>
+        <v>0.06578732461423716</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0.05275586948199101</v>
       </c>
       <c r="F101">
-        <v>0.04861176322965455</v>
+        <v>0.04997924477241251</v>
       </c>
     </row>
   </sheetData>
